--- a/tests/bin/OpenRefine_exports/2_DB2_2019.xlsx
+++ b/tests/bin/OpenRefine_exports/2_DB2_2019.xlsx
@@ -36,12 +36,6 @@
     <t>Data_Type</t>
   </si>
   <si>
-    <t>R4_Month</t>
-  </si>
-  <si>
-    <t>R4_Count</t>
-  </si>
-  <si>
     <t>Historical Abstracts</t>
   </si>
   <si>
@@ -55,6 +49,12 @@
   </si>
   <si>
     <t>Access denied: concurrent/simultaneous user license limit exceeded</t>
+  </si>
+  <si>
+    <t>Usage_Date</t>
+  </si>
+  <si>
+    <t>Usage_Count</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -402,27 +404,27 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <v>43282</v>
@@ -433,19 +435,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1">
         <v>43313</v>
@@ -456,19 +458,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
         <v>43344</v>
@@ -479,19 +481,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1">
         <v>43374</v>
@@ -502,19 +504,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
         <v>43405</v>
@@ -525,19 +527,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1">
         <v>43435</v>
@@ -548,19 +550,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
         <v>43466</v>
@@ -571,19 +573,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1">
         <v>43497</v>
@@ -594,19 +596,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1">
         <v>43525</v>
@@ -617,19 +619,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1">
         <v>43556</v>
@@ -640,19 +642,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1">
         <v>43586</v>
@@ -663,19 +665,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1">
         <v>43617</v>
